--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StuehlerH/zeppelin/PhD/07_Implementierungen/02_ZPAI/pre-postprocessing-evaluation-framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B16ECD1-6DE8-0A43-BCC3-120FF4894F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CFE63-52BD-E54A-9309-D659D32FD0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{44082038-FCD4-C940-8E68-2A17959B9171}"/>
+    <workbookView xWindow="-51200" yWindow="-7500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{44082038-FCD4-C940-8E68-2A17959B9171}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Measurement data</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>merged-files-final-selected-features-2023-11-23</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use just the first four measurements. The 5th measurement is out of the range of value 1 for the MAPE. </t>
   </si>
 </sst>
 </file>
@@ -101,12 +107,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,10 +159,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,15 +499,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC4C17-4148-484F-AB65-A037E96590BF}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,10 +515,10 @@
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
@@ -482,10 +529,10 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2910</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -496,10 +543,10 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2916</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>18</v>
       </c>
       <c r="D3" t="s">
@@ -510,10 +557,10 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2916</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -524,10 +571,10 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2813</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>18</v>
       </c>
       <c r="D5" t="s">
@@ -538,10 +585,10 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2813</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>6</v>
       </c>
       <c r="D6" t="s">
@@ -552,10 +599,10 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2812</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>18</v>
       </c>
       <c r="D7" t="s">
@@ -566,10 +613,10 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2812</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" t="s">
@@ -586,63 +633,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B5D745-8D7E-5345-8D46-5816273A76D4}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="45.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>45258</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>45260</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>45262</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>38344</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StuehlerH/zeppelin/PhD/07_Implementierungen/02_ZPAI/pre-postprocessing-evaluation-framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CFE63-52BD-E54A-9309-D659D32FD0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B199197-3F14-874F-8096-6722D7B6EF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-7500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{44082038-FCD4-C940-8E68-2A17959B9171}"/>
+    <workbookView xWindow="-51220" yWindow="-7500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{44082038-FCD4-C940-8E68-2A17959B9171}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Measurement data</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">Use just the first four measurements. The 5th measurement is out of the range of value 1 for the MAPE. </t>
+  </si>
+  <si>
+    <t>Use a boxplot to depict automl MAPE values.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,6 +184,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B5D745-8D7E-5345-8D46-5816273A76D4}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,24 +685,27 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45262</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>38344</v>
+        <v>45264</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -706,6 +715,17 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>45267</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StuehlerH/zeppelin/PhD/07_Implementierungen/02_ZPAI/pre-postprocessing-evaluation-framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B199197-3F14-874F-8096-6722D7B6EF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E7B6A-E1C2-2444-BC77-B81724B676AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51220" yWindow="-7500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{44082038-FCD4-C940-8E68-2A17959B9171}"/>
+    <workbookView xWindow="-51200" yWindow="-7500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{44082038-FCD4-C940-8E68-2A17959B9171}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Measurement data</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>Use a boxplot to depict automl MAPE values.</t>
+  </si>
+  <si>
+    <t>merged-files-final-selected-features-2023-12-12</t>
+  </si>
+  <si>
+    <t>Automatic IQR OD</t>
+  </si>
+  <si>
+    <t>merged-files-final-2023-12-12</t>
+  </si>
+  <si>
+    <t>Calculated on Linux Home</t>
+  </si>
+  <si>
+    <t>Calculated on Linux ZZ</t>
   </si>
 </sst>
 </file>
@@ -112,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +156,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -186,9 +209,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC4C17-4148-484F-AB65-A037E96590BF}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,6 +651,34 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2804</v>
+      </c>
+      <c r="C9" s="10">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2804</v>
+      </c>
+      <c r="C10" s="10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -639,10 +689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B5D745-8D7E-5345-8D46-5816273A76D4}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,7 +735,7 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -724,8 +774,36 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>45272</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45273</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StuehlerH/zeppelin/PhD/07_Implementierungen/02_ZPAI/pre-postprocessing-evaluation-framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E7B6A-E1C2-2444-BC77-B81724B676AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D1B975-507B-4B42-AE1A-2D34D38B74A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-7500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{44082038-FCD4-C940-8E68-2A17959B9171}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Measurement data</t>
   </si>
@@ -114,10 +114,19 @@
     <t>merged-files-final-2023-12-12</t>
   </si>
   <si>
-    <t>Calculated on Linux Home</t>
-  </si>
-  <si>
-    <t>Calculated on Linux ZZ</t>
+    <t>Calculated on Linux Home for full feature set</t>
+  </si>
+  <si>
+    <t>Calculated on Linux ZZ for full feature set</t>
+  </si>
+  <si>
+    <t>calculated on Linux Home for full feature set</t>
+  </si>
+  <si>
+    <t>merged-files-final-2022-07-06 + merged-files-final-selected-features-2023-12-12</t>
+  </si>
+  <si>
+    <t>calculated on Linux Home for full feature set manualy merged to show in one plot Pipeline 1, 2 &amp; 3</t>
   </si>
 </sst>
 </file>
@@ -127,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,21 +146,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,32 +179,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,30 +658,30 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="5">
         <v>2804</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="5">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="5">
         <v>2804</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -689,121 +695,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B5D745-8D7E-5345-8D46-5816273A76D4}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="45.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="45.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>45258</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>45260</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="9">
         <v>45262</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>45264</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>45267</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>45272</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>45273</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>45275</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>45638</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
